--- a/Summaries/E0/Newcastle_West Ham_adv.xlsx
+++ b/Summaries/E0/Newcastle_West Ham_adv.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="923" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="923" uniqueCount="354">
   <si>
     <t>Div</t>
   </si>
@@ -505,127 +505,127 @@
     <t>Aer%</t>
   </si>
   <si>
-    <t>321</t>
-  </si>
-  <si>
-    <t>987</t>
-  </si>
-  <si>
-    <t>1863</t>
+    <t>322</t>
+  </si>
+  <si>
+    <t>992</t>
+  </si>
+  <si>
+    <t>1875</t>
   </si>
   <si>
     <t>77</t>
   </si>
   <si>
-    <t>1599</t>
-  </si>
-  <si>
-    <t>872</t>
-  </si>
-  <si>
-    <t>2056</t>
-  </si>
-  <si>
-    <t>1064</t>
-  </si>
-  <si>
-    <t>1597</t>
-  </si>
-  <si>
-    <t>1755</t>
-  </si>
-  <si>
-    <t>1939</t>
-  </si>
-  <si>
-    <t>1949</t>
-  </si>
-  <si>
-    <t>844</t>
-  </si>
-  <si>
-    <t>1190</t>
-  </si>
-  <si>
-    <t>1051</t>
-  </si>
-  <si>
-    <t>1448</t>
-  </si>
-  <si>
-    <t>1677</t>
-  </si>
-  <si>
-    <t>2186</t>
+    <t>1610</t>
+  </si>
+  <si>
+    <t>877</t>
+  </si>
+  <si>
+    <t>2071</t>
+  </si>
+  <si>
+    <t>1069</t>
+  </si>
+  <si>
+    <t>1608</t>
+  </si>
+  <si>
+    <t>1766</t>
+  </si>
+  <si>
+    <t>1953</t>
+  </si>
+  <si>
+    <t>1963</t>
+  </si>
+  <si>
+    <t>849</t>
+  </si>
+  <si>
+    <t>1197</t>
+  </si>
+  <si>
+    <t>1056</t>
+  </si>
+  <si>
+    <t>1458</t>
+  </si>
+  <si>
+    <t>1688</t>
+  </si>
+  <si>
+    <t>2201</t>
   </si>
   <si>
     <t>103</t>
   </si>
   <si>
-    <t>481</t>
-  </si>
-  <si>
-    <t>953</t>
-  </si>
-  <si>
-    <t>1322</t>
-  </si>
-  <si>
-    <t>1987</t>
+    <t>473</t>
+  </si>
+  <si>
+    <t>482</t>
+  </si>
+  <si>
+    <t>958</t>
+  </si>
+  <si>
+    <t>1330</t>
+  </si>
+  <si>
+    <t>2001</t>
   </si>
   <si>
     <t>71</t>
   </si>
   <si>
-    <t>192</t>
-  </si>
-  <si>
-    <t>800</t>
+    <t>193</t>
+  </si>
+  <si>
+    <t>805</t>
+  </si>
+  <si>
+    <t>959</t>
+  </si>
+  <si>
+    <t>1109</t>
+  </si>
+  <si>
+    <t>1188</t>
+  </si>
+  <si>
+    <t>1583</t>
+  </si>
+  <si>
+    <t>2092</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>291</t>
+  </si>
+  <si>
+    <t>676</t>
+  </si>
+  <si>
+    <t>734</t>
+  </si>
+  <si>
+    <t>847</t>
   </si>
   <si>
     <t>954</t>
   </si>
   <si>
-    <t>1103</t>
-  </si>
-  <si>
-    <t>1181</t>
-  </si>
-  <si>
-    <t>1572</t>
-  </si>
-  <si>
-    <t>2077</t>
-  </si>
-  <si>
-    <t>114</t>
-  </si>
-  <si>
-    <t>290</t>
-  </si>
-  <si>
-    <t>472</t>
-  </si>
-  <si>
-    <t>672</t>
-  </si>
-  <si>
-    <t>730</t>
-  </si>
-  <si>
-    <t>842</t>
-  </si>
-  <si>
-    <t>949</t>
-  </si>
-  <si>
-    <t>1113</t>
-  </si>
-  <si>
-    <t>2048</t>
-  </si>
-  <si>
-    <t>2163</t>
+    <t>1119</t>
+  </si>
+  <si>
+    <t>2063</t>
+  </si>
+  <si>
+    <t>2178</t>
   </si>
   <si>
     <t>Dan Burn</t>
@@ -685,6 +685,9 @@
     <t>Michail Antonio</t>
   </si>
   <si>
+    <t>Vladimír Coufal</t>
+  </si>
+  <si>
     <t>Aaron Cresswell</t>
   </si>
   <si>
@@ -727,9 +730,6 @@
     <t>Jarrod Bowen</t>
   </si>
   <si>
-    <t>Vladimír Coufal</t>
-  </si>
-  <si>
     <t>Łukasz Fabiański</t>
   </si>
   <si>
@@ -832,127 +832,127 @@
     <t>eng Premier League</t>
   </si>
   <si>
-    <t>32-184</t>
-  </si>
-  <si>
-    <t>28-087</t>
-  </si>
-  <si>
-    <t>32-325</t>
-  </si>
-  <si>
-    <t>27-016</t>
-  </si>
-  <si>
-    <t>27-074</t>
-  </si>
-  <si>
-    <t>20-062</t>
-  </si>
-  <si>
-    <t>24-185</t>
-  </si>
-  <si>
-    <t>27-170</t>
-  </si>
-  <si>
-    <t>30-098</t>
-  </si>
-  <si>
-    <t>30-211</t>
-  </si>
-  <si>
-    <t>27-312</t>
-  </si>
-  <si>
-    <t>29-256</t>
-  </si>
-  <si>
-    <t>26-359</t>
-  </si>
-  <si>
-    <t>27-010</t>
-  </si>
-  <si>
-    <t>26-034</t>
-  </si>
-  <si>
-    <t>29-259</t>
-  </si>
-  <si>
-    <t>32-204</t>
-  </si>
-  <si>
-    <t>25-081</t>
-  </si>
-  <si>
-    <t>34-226</t>
-  </si>
-  <si>
-    <t>34-330</t>
-  </si>
-  <si>
-    <t>24-180</t>
-  </si>
-  <si>
-    <t>26-334</t>
-  </si>
-  <si>
-    <t>23-010</t>
-  </si>
-  <si>
-    <t>30-273</t>
-  </si>
-  <si>
-    <t>26-336</t>
-  </si>
-  <si>
-    <t>23-259</t>
-  </si>
-  <si>
-    <t>25-049</t>
-  </si>
-  <si>
-    <t>30-099</t>
-  </si>
-  <si>
-    <t>21-363</t>
-  </si>
-  <si>
-    <t>21-097</t>
-  </si>
-  <si>
-    <t>34-051</t>
-  </si>
-  <si>
-    <t>31-256</t>
-  </si>
-  <si>
-    <t>27-325</t>
-  </si>
-  <si>
-    <t>32-079</t>
-  </si>
-  <si>
-    <t>39-205</t>
-  </si>
-  <si>
-    <t>31-274</t>
-  </si>
-  <si>
-    <t>18-274</t>
-  </si>
-  <si>
-    <t>32-109</t>
-  </si>
-  <si>
-    <t>24-099</t>
-  </si>
-  <si>
-    <t>24-315</t>
-  </si>
-  <si>
-    <t>26-349</t>
+    <t>32-191</t>
+  </si>
+  <si>
+    <t>28-094</t>
+  </si>
+  <si>
+    <t>32-332</t>
+  </si>
+  <si>
+    <t>27-023</t>
+  </si>
+  <si>
+    <t>27-081</t>
+  </si>
+  <si>
+    <t>20-069</t>
+  </si>
+  <si>
+    <t>24-192</t>
+  </si>
+  <si>
+    <t>27-177</t>
+  </si>
+  <si>
+    <t>30-105</t>
+  </si>
+  <si>
+    <t>30-218</t>
+  </si>
+  <si>
+    <t>27-319</t>
+  </si>
+  <si>
+    <t>29-263</t>
+  </si>
+  <si>
+    <t>27-000</t>
+  </si>
+  <si>
+    <t>27-017</t>
+  </si>
+  <si>
+    <t>26-041</t>
+  </si>
+  <si>
+    <t>29-266</t>
+  </si>
+  <si>
+    <t>32-211</t>
+  </si>
+  <si>
+    <t>25-088</t>
+  </si>
+  <si>
+    <t>34-233</t>
+  </si>
+  <si>
+    <t>32-086</t>
+  </si>
+  <si>
+    <t>34-337</t>
+  </si>
+  <si>
+    <t>24-187</t>
+  </si>
+  <si>
+    <t>26-341</t>
+  </si>
+  <si>
+    <t>23-017</t>
+  </si>
+  <si>
+    <t>30-280</t>
+  </si>
+  <si>
+    <t>26-343</t>
+  </si>
+  <si>
+    <t>23-266</t>
+  </si>
+  <si>
+    <t>25-056</t>
+  </si>
+  <si>
+    <t>30-106</t>
+  </si>
+  <si>
+    <t>22-004</t>
+  </si>
+  <si>
+    <t>21-104</t>
+  </si>
+  <si>
+    <t>34-058</t>
+  </si>
+  <si>
+    <t>31-263</t>
+  </si>
+  <si>
+    <t>27-332</t>
+  </si>
+  <si>
+    <t>39-212</t>
+  </si>
+  <si>
+    <t>31-281</t>
+  </si>
+  <si>
+    <t>18-281</t>
+  </si>
+  <si>
+    <t>32-116</t>
+  </si>
+  <si>
+    <t>24-106</t>
+  </si>
+  <si>
+    <t>24-322</t>
+  </si>
+  <si>
+    <t>26-356</t>
   </si>
   <si>
     <t>1992</t>
@@ -989,9 +989,6 @@
   </si>
   <si>
     <t>1989</t>
-  </si>
-  <si>
-    <t>2001</t>
   </si>
   <si>
     <t>2002</t>
@@ -3767,7 +3764,7 @@
         <v>163</v>
       </c>
       <c r="B2" t="n">
-        <v>328.0</v>
+        <v>329.0</v>
       </c>
       <c r="C2" t="s">
         <v>204</v>
@@ -3791,19 +3788,19 @@
         <v>313</v>
       </c>
       <c r="J2" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N2" t="n">
         <v>10.0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>8.0</v>
       </c>
       <c r="O2" t="n">
         <v>5.0</v>
@@ -3830,16 +3827,16 @@
         <v>1.0</v>
       </c>
       <c r="W2" t="n">
-        <v>28.0</v>
+        <v>30.0</v>
       </c>
       <c r="X2" t="n">
-        <v>34.0</v>
+        <v>41.0</v>
       </c>
       <c r="Y2" t="n">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="Z2" t="n">
-        <v>64.2</v>
+        <v>67.2</v>
       </c>
     </row>
     <row r="3">
@@ -3847,7 +3844,7 @@
         <v>164</v>
       </c>
       <c r="B3" t="n">
-        <v>1005.0</v>
+        <v>1010.0</v>
       </c>
       <c r="C3" t="s">
         <v>205</v>
@@ -3871,7 +3868,7 @@
         <v>314</v>
       </c>
       <c r="J3" t="n">
-        <v>9.3</v>
+        <v>10.3</v>
       </c>
       <c r="K3" t="n">
         <v>4.0</v>
@@ -3886,19 +3883,19 @@
         <v>24.0</v>
       </c>
       <c r="O3" t="n">
-        <v>12.0</v>
+        <v>15.0</v>
       </c>
       <c r="P3" t="n">
         <v>2.0</v>
       </c>
       <c r="Q3" t="n">
-        <v>3.0</v>
+        <v>9.0</v>
       </c>
       <c r="R3" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="S3" t="n">
-        <v>15.0</v>
+        <v>18.0</v>
       </c>
       <c r="T3" t="n">
         <v>0.0</v>
@@ -3910,16 +3907,16 @@
         <v>0.0</v>
       </c>
       <c r="W3" t="n">
-        <v>51.0</v>
+        <v>56.0</v>
       </c>
       <c r="X3" t="n">
-        <v>15.0</v>
+        <v>19.0</v>
       </c>
       <c r="Y3" t="n">
-        <v>12.0</v>
+        <v>14.0</v>
       </c>
       <c r="Z3" t="n">
-        <v>55.6</v>
+        <v>57.6</v>
       </c>
     </row>
     <row r="4">
@@ -3927,7 +3924,7 @@
         <v>165</v>
       </c>
       <c r="B4" t="n">
-        <v>1890.0</v>
+        <v>1902.0</v>
       </c>
       <c r="C4" t="s">
         <v>206</v>
@@ -3951,7 +3948,7 @@
         <v>315</v>
       </c>
       <c r="J4" t="n">
-        <v>7.3</v>
+        <v>8.3</v>
       </c>
       <c r="K4" t="n">
         <v>4.0</v>
@@ -3975,7 +3972,7 @@
         <v>1.0</v>
       </c>
       <c r="R4" t="n">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
       <c r="S4" t="n">
         <v>5.0</v>
@@ -3990,16 +3987,16 @@
         <v>0.0</v>
       </c>
       <c r="W4" t="n">
-        <v>28.0</v>
+        <v>33.0</v>
       </c>
       <c r="X4" t="n">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="Y4" t="n">
-        <v>14.0</v>
+        <v>16.0</v>
       </c>
       <c r="Z4" t="n">
-        <v>50.0</v>
+        <v>48.4</v>
       </c>
     </row>
     <row r="5">
@@ -4087,7 +4084,7 @@
         <v>167</v>
       </c>
       <c r="B6" t="n">
-        <v>1622.0</v>
+        <v>1633.0</v>
       </c>
       <c r="C6" t="s">
         <v>208</v>
@@ -4111,7 +4108,7 @@
         <v>316</v>
       </c>
       <c r="J6" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="K6" t="n">
         <v>4.0</v>
@@ -4123,16 +4120,16 @@
         <v>0.0</v>
       </c>
       <c r="N6" t="n">
-        <v>15.0</v>
+        <v>18.0</v>
       </c>
       <c r="O6" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="P6" t="n">
         <v>1.0</v>
       </c>
       <c r="Q6" t="n">
-        <v>11.0</v>
+        <v>13.0</v>
       </c>
       <c r="R6" t="n">
         <v>5.0</v>
@@ -4150,16 +4147,16 @@
         <v>0.0</v>
       </c>
       <c r="W6" t="n">
-        <v>48.0</v>
+        <v>56.0</v>
       </c>
       <c r="X6" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="Y6" t="n">
-        <v>17.0</v>
+        <v>20.0</v>
       </c>
       <c r="Z6" t="n">
-        <v>34.6</v>
+        <v>33.3</v>
       </c>
     </row>
     <row r="7">
@@ -4167,7 +4164,7 @@
         <v>168</v>
       </c>
       <c r="B7" t="n">
-        <v>890.0</v>
+        <v>895.0</v>
       </c>
       <c r="C7" t="s">
         <v>209</v>
@@ -4191,7 +4188,7 @@
         <v>317</v>
       </c>
       <c r="J7" t="n">
-        <v>7.7</v>
+        <v>8.7</v>
       </c>
       <c r="K7" t="n">
         <v>3.0</v>
@@ -4212,13 +4209,13 @@
         <v>0.0</v>
       </c>
       <c r="Q7" t="n">
-        <v>32.0</v>
+        <v>38.0</v>
       </c>
       <c r="R7" t="n">
-        <v>7.0</v>
+        <v>12.0</v>
       </c>
       <c r="S7" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="T7" t="n">
         <v>0.0</v>
@@ -4230,16 +4227,16 @@
         <v>0.0</v>
       </c>
       <c r="W7" t="n">
-        <v>40.0</v>
+        <v>47.0</v>
       </c>
       <c r="X7" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="Y7" t="n">
         <v>10.0</v>
       </c>
-      <c r="Y7" t="n">
-        <v>6.0</v>
-      </c>
       <c r="Z7" t="n">
-        <v>62.5</v>
+        <v>60.0</v>
       </c>
     </row>
     <row r="8">
@@ -4247,7 +4244,7 @@
         <v>169</v>
       </c>
       <c r="B8" t="n">
-        <v>2083.0</v>
+        <v>2098.0</v>
       </c>
       <c r="C8" t="s">
         <v>210</v>
@@ -4271,7 +4268,7 @@
         <v>318</v>
       </c>
       <c r="J8" t="n">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="K8" t="n">
         <v>3.0</v>
@@ -4286,19 +4283,19 @@
         <v>7.0</v>
       </c>
       <c r="O8" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="P8" t="n">
         <v>1.0</v>
       </c>
       <c r="Q8" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="R8" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="S8" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="T8" t="n">
         <v>1.0</v>
@@ -4310,16 +4307,16 @@
         <v>0.0</v>
       </c>
       <c r="W8" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Z8" t="n">
         <v>25.0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>33.3</v>
       </c>
     </row>
     <row r="9">
@@ -4327,7 +4324,7 @@
         <v>170</v>
       </c>
       <c r="B9" t="n">
-        <v>1082.0</v>
+        <v>1087.0</v>
       </c>
       <c r="C9" t="s">
         <v>211</v>
@@ -4351,7 +4348,7 @@
         <v>316</v>
       </c>
       <c r="J9" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="K9" t="n">
         <v>3.0</v>
@@ -4390,16 +4387,16 @@
         <v>0.0</v>
       </c>
       <c r="W9" t="n">
-        <v>47.0</v>
+        <v>53.0</v>
       </c>
       <c r="X9" t="n">
-        <v>19.0</v>
+        <v>24.0</v>
       </c>
       <c r="Y9" t="n">
-        <v>11.0</v>
+        <v>13.0</v>
       </c>
       <c r="Z9" t="n">
-        <v>63.3</v>
+        <v>64.9</v>
       </c>
     </row>
     <row r="10">
@@ -4407,7 +4404,7 @@
         <v>171</v>
       </c>
       <c r="B10" t="n">
-        <v>1620.0</v>
+        <v>1631.0</v>
       </c>
       <c r="C10" t="s">
         <v>212</v>
@@ -4431,7 +4428,7 @@
         <v>319</v>
       </c>
       <c r="J10" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="K10" t="n">
         <v>3.0</v>
@@ -4443,7 +4440,7 @@
         <v>0.0</v>
       </c>
       <c r="N10" t="n">
-        <v>10.0</v>
+        <v>12.0</v>
       </c>
       <c r="O10" t="n">
         <v>4.0</v>
@@ -4452,13 +4449,13 @@
         <v>0.0</v>
       </c>
       <c r="Q10" t="n">
-        <v>25.0</v>
+        <v>28.0</v>
       </c>
       <c r="R10" t="n">
         <v>10.0</v>
       </c>
       <c r="S10" t="n">
-        <v>14.0</v>
+        <v>16.0</v>
       </c>
       <c r="T10" t="n">
         <v>0.0</v>
@@ -4470,16 +4467,16 @@
         <v>0.0</v>
       </c>
       <c r="W10" t="n">
-        <v>34.0</v>
+        <v>39.0</v>
       </c>
       <c r="X10" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="Y10" t="n">
         <v>5.0</v>
       </c>
       <c r="Z10" t="n">
-        <v>37.5</v>
+        <v>44.4</v>
       </c>
     </row>
     <row r="11">
@@ -4487,7 +4484,7 @@
         <v>172</v>
       </c>
       <c r="B11" t="n">
-        <v>1780.0</v>
+        <v>1791.0</v>
       </c>
       <c r="C11" t="s">
         <v>213</v>
@@ -4511,7 +4508,7 @@
         <v>319</v>
       </c>
       <c r="J11" t="n">
-        <v>8.1</v>
+        <v>8.9</v>
       </c>
       <c r="K11" t="n">
         <v>3.0</v>
@@ -4526,7 +4523,7 @@
         <v>11.0</v>
       </c>
       <c r="O11" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="P11" t="n">
         <v>1.0</v>
@@ -4567,7 +4564,7 @@
         <v>173</v>
       </c>
       <c r="B12" t="n">
-        <v>1966.0</v>
+        <v>1980.0</v>
       </c>
       <c r="C12" t="s">
         <v>214</v>
@@ -4591,7 +4588,7 @@
         <v>316</v>
       </c>
       <c r="J12" t="n">
-        <v>2.7</v>
+        <v>3.0</v>
       </c>
       <c r="K12" t="n">
         <v>3.0</v>
@@ -4615,7 +4612,7 @@
         <v>5.0</v>
       </c>
       <c r="R12" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="S12" t="n">
         <v>3.0</v>
@@ -4630,7 +4627,7 @@
         <v>0.0</v>
       </c>
       <c r="W12" t="n">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
       <c r="X12" t="n">
         <v>0.0</v>
@@ -4647,7 +4644,7 @@
         <v>174</v>
       </c>
       <c r="B13" t="n">
-        <v>1976.0</v>
+        <v>1990.0</v>
       </c>
       <c r="C13" t="s">
         <v>215</v>
@@ -4671,7 +4668,7 @@
         <v>320</v>
       </c>
       <c r="J13" t="n">
-        <v>6.3</v>
+        <v>7.3</v>
       </c>
       <c r="K13" t="n">
         <v>3.0</v>
@@ -4686,7 +4683,7 @@
         <v>12.0</v>
       </c>
       <c r="O13" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="P13" t="n">
         <v>1.0</v>
@@ -4698,7 +4695,7 @@
         <v>8.0</v>
       </c>
       <c r="S13" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="T13" t="n">
         <v>1.0</v>
@@ -4710,16 +4707,16 @@
         <v>0.0</v>
       </c>
       <c r="W13" t="n">
-        <v>14.0</v>
+        <v>16.0</v>
       </c>
       <c r="X13" t="n">
-        <v>26.0</v>
+        <v>30.0</v>
       </c>
       <c r="Y13" t="n">
-        <v>17.0</v>
+        <v>21.0</v>
       </c>
       <c r="Z13" t="n">
-        <v>60.5</v>
+        <v>58.8</v>
       </c>
     </row>
     <row r="14">
@@ -4727,7 +4724,7 @@
         <v>175</v>
       </c>
       <c r="B14" t="n">
-        <v>862.0</v>
+        <v>867.0</v>
       </c>
       <c r="C14" t="s">
         <v>216</v>
@@ -4751,7 +4748,7 @@
         <v>316</v>
       </c>
       <c r="J14" t="n">
-        <v>9.9</v>
+        <v>10.9</v>
       </c>
       <c r="K14" t="n">
         <v>2.0</v>
@@ -4763,16 +4760,16 @@
         <v>0.0</v>
       </c>
       <c r="N14" t="n">
-        <v>15.0</v>
+        <v>18.0</v>
       </c>
       <c r="O14" t="n">
-        <v>41.0</v>
+        <v>45.0</v>
       </c>
       <c r="P14" t="n">
         <v>0.0</v>
       </c>
       <c r="Q14" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="R14" t="n">
         <v>12.0</v>
@@ -4790,7 +4787,7 @@
         <v>0.0</v>
       </c>
       <c r="W14" t="n">
-        <v>52.0</v>
+        <v>60.0</v>
       </c>
       <c r="X14" t="n">
         <v>3.0</v>
@@ -4807,7 +4804,7 @@
         <v>176</v>
       </c>
       <c r="B15" t="n">
-        <v>1208.0</v>
+        <v>1215.0</v>
       </c>
       <c r="C15" t="s">
         <v>217</v>
@@ -4831,7 +4828,7 @@
         <v>316</v>
       </c>
       <c r="J15" t="n">
-        <v>4.7</v>
+        <v>5.7</v>
       </c>
       <c r="K15" t="n">
         <v>2.0</v>
@@ -4858,7 +4855,7 @@
         <v>5.0</v>
       </c>
       <c r="S15" t="n">
-        <v>14.0</v>
+        <v>16.0</v>
       </c>
       <c r="T15" t="n">
         <v>0.0</v>
@@ -4870,16 +4867,16 @@
         <v>0.0</v>
       </c>
       <c r="W15" t="n">
-        <v>19.0</v>
+        <v>23.0</v>
       </c>
       <c r="X15" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="Y15" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="Z15" t="n">
-        <v>33.3</v>
+        <v>44.4</v>
       </c>
     </row>
     <row r="16">
@@ -4887,7 +4884,7 @@
         <v>177</v>
       </c>
       <c r="B16" t="n">
-        <v>1069.0</v>
+        <v>1074.0</v>
       </c>
       <c r="C16" t="s">
         <v>218</v>
@@ -4967,7 +4964,7 @@
         <v>178</v>
       </c>
       <c r="B17" t="n">
-        <v>1468.0</v>
+        <v>1478.0</v>
       </c>
       <c r="C17" t="s">
         <v>219</v>
@@ -5047,7 +5044,7 @@
         <v>179</v>
       </c>
       <c r="B18" t="n">
-        <v>1700.0</v>
+        <v>1711.0</v>
       </c>
       <c r="C18" t="s">
         <v>220</v>
@@ -5071,7 +5068,7 @@
         <v>313</v>
       </c>
       <c r="J18" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="K18" t="n">
         <v>1.0</v>
@@ -5095,7 +5092,7 @@
         <v>0.0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="S18" t="n">
         <v>0.0</v>
@@ -5110,7 +5107,7 @@
         <v>0.0</v>
       </c>
       <c r="W18" t="n">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="X18" t="n">
         <v>4.0</v>
@@ -5127,7 +5124,7 @@
         <v>180</v>
       </c>
       <c r="B19" t="n">
-        <v>2216.0</v>
+        <v>2231.0</v>
       </c>
       <c r="C19" t="s">
         <v>221</v>
@@ -5151,7 +5148,7 @@
         <v>322</v>
       </c>
       <c r="J19" t="n">
-        <v>2.9</v>
+        <v>3.7</v>
       </c>
       <c r="K19" t="n">
         <v>1.0</v>
@@ -5163,22 +5160,22 @@
         <v>0.0</v>
       </c>
       <c r="N19" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="O19" t="n">
         <v>6.0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>5.0</v>
       </c>
       <c r="P19" t="n">
         <v>2.0</v>
       </c>
       <c r="Q19" t="n">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="R19" t="n">
         <v>2.0</v>
       </c>
       <c r="S19" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="T19" t="n">
         <v>0.0</v>
@@ -5190,13 +5187,13 @@
         <v>0.0</v>
       </c>
       <c r="W19" t="n">
-        <v>9.0</v>
+        <v>13.0</v>
       </c>
       <c r="X19" t="n">
         <v>0.0</v>
       </c>
       <c r="Y19" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="Z19" t="n">
         <v>0.0</v>
@@ -5231,7 +5228,7 @@
         <v>323</v>
       </c>
       <c r="J20" t="n">
-        <v>6.7</v>
+        <v>7.4</v>
       </c>
       <c r="K20" t="n">
         <v>1.0</v>
@@ -5243,10 +5240,10 @@
         <v>0.0</v>
       </c>
       <c r="N20" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="O20" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="P20" t="n">
         <v>4.0</v>
@@ -5258,7 +5255,7 @@
         <v>0.0</v>
       </c>
       <c r="S20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T20" t="n">
         <v>0.0</v>
@@ -5270,16 +5267,16 @@
         <v>0.0</v>
       </c>
       <c r="W20" t="n">
-        <v>14.0</v>
+        <v>17.0</v>
       </c>
       <c r="X20" t="n">
-        <v>10.0</v>
+        <v>12.0</v>
       </c>
       <c r="Y20" t="n">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="Z20" t="n">
-        <v>34.5</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="21">
@@ -5287,13 +5284,13 @@
         <v>182</v>
       </c>
       <c r="B21" t="n">
-        <v>492.0</v>
+        <v>484.0</v>
       </c>
       <c r="C21" t="s">
         <v>223</v>
       </c>
       <c r="D21" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="E21" t="s">
         <v>264</v>
@@ -5308,10 +5305,10 @@
         <v>291</v>
       </c>
       <c r="I21" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="J21" t="n">
-        <v>0.3</v>
+        <v>2.5</v>
       </c>
       <c r="K21" t="n">
         <v>1.0</v>
@@ -5323,43 +5320,43 @@
         <v>0.0</v>
       </c>
       <c r="N21" t="n">
-        <v>1.0</v>
+        <v>7.0</v>
       </c>
       <c r="O21" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="P21" t="n">
         <v>0.0</v>
       </c>
       <c r="Q21" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="R21" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W21" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="X21" t="n">
         <v>3.0</v>
       </c>
-      <c r="R21" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S21" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T21" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U21" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V21" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W21" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="X21" t="n">
-        <v>1.0</v>
-      </c>
       <c r="Y21" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="Z21" t="n">
-        <v>100.0</v>
+        <v>42.9</v>
       </c>
     </row>
     <row r="22">
@@ -5367,16 +5364,16 @@
         <v>183</v>
       </c>
       <c r="B22" t="n">
-        <v>971.0</v>
+        <v>493.0</v>
       </c>
       <c r="C22" t="s">
         <v>224</v>
       </c>
       <c r="D22" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="E22" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F22" t="s">
         <v>96</v>
@@ -5388,7 +5385,7 @@
         <v>292</v>
       </c>
       <c r="I22" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="J22" t="n">
         <v>0.3</v>
@@ -5412,13 +5409,13 @@
         <v>0.0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="R22" t="n">
         <v>0.0</v>
       </c>
       <c r="S22" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="T22" t="n">
         <v>0.0</v>
@@ -5430,16 +5427,16 @@
         <v>0.0</v>
       </c>
       <c r="W22" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="X22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Y22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z22" t="n">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
     </row>
     <row r="23">
@@ -5447,16 +5444,16 @@
         <v>184</v>
       </c>
       <c r="B23" t="n">
-        <v>1341.0</v>
+        <v>976.0</v>
       </c>
       <c r="C23" t="s">
         <v>225</v>
       </c>
       <c r="D23" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E23" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="F23" t="s">
         <v>96</v>
@@ -5468,10 +5465,10 @@
         <v>293</v>
       </c>
       <c r="I23" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="J23" t="n">
-        <v>7.2</v>
+        <v>0.3</v>
       </c>
       <c r="K23" t="n">
         <v>1.0</v>
@@ -5483,23 +5480,23 @@
         <v>0.0</v>
       </c>
       <c r="N23" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="O23" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="P23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S23" t="n">
         <v>2.0</v>
       </c>
-      <c r="Q23" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>9.0</v>
-      </c>
       <c r="T23" t="n">
         <v>0.0</v>
       </c>
@@ -5510,16 +5507,16 @@
         <v>0.0</v>
       </c>
       <c r="W23" t="n">
-        <v>23.0</v>
+        <v>0.0</v>
       </c>
       <c r="X23" t="n">
-        <v>15.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y23" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="Z23" t="n">
-        <v>83.3</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="24">
@@ -5527,16 +5524,16 @@
         <v>185</v>
       </c>
       <c r="B24" t="n">
-        <v>2014.0</v>
+        <v>1349.0</v>
       </c>
       <c r="C24" t="s">
         <v>226</v>
       </c>
       <c r="D24" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E24" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="F24" t="s">
         <v>96</v>
@@ -5548,10 +5545,10 @@
         <v>294</v>
       </c>
       <c r="I24" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="J24" t="n">
-        <v>2.9</v>
+        <v>7.2</v>
       </c>
       <c r="K24" t="n">
         <v>1.0</v>
@@ -5563,22 +5560,22 @@
         <v>0.0</v>
       </c>
       <c r="N24" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P24" t="n">
         <v>2.0</v>
       </c>
-      <c r="O24" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="P24" t="n">
-        <v>1.0</v>
-      </c>
       <c r="Q24" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.0</v>
+        <v>14.0</v>
       </c>
       <c r="S24" t="n">
-        <v>1.0</v>
+        <v>9.0</v>
       </c>
       <c r="T24" t="n">
         <v>0.0</v>
@@ -5590,16 +5587,16 @@
         <v>0.0</v>
       </c>
       <c r="W24" t="n">
-        <v>12.0</v>
+        <v>23.0</v>
       </c>
       <c r="X24" t="n">
-        <v>1.0</v>
+        <v>15.0</v>
       </c>
       <c r="Y24" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="Z24" t="n">
-        <v>33.3</v>
+        <v>83.3</v>
       </c>
     </row>
     <row r="25">
@@ -5607,19 +5604,19 @@
         <v>186</v>
       </c>
       <c r="B25" t="n">
-        <v>72.0</v>
+        <v>2028.0</v>
       </c>
       <c r="C25" t="s">
         <v>227</v>
       </c>
       <c r="D25" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E25" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="F25" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G25" t="s">
         <v>271</v>
@@ -5628,13 +5625,13 @@
         <v>295</v>
       </c>
       <c r="I25" t="s">
-        <v>319</v>
+        <v>186</v>
       </c>
       <c r="J25" t="n">
-        <v>1.2</v>
+        <v>3.8</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="L25" t="n">
         <v>0.0</v>
@@ -5643,22 +5640,22 @@
         <v>0.0</v>
       </c>
       <c r="N25" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="O25" t="n">
-        <v>1.0</v>
+        <v>9.0</v>
       </c>
       <c r="P25" t="n">
         <v>1.0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="R25" t="n">
         <v>0.0</v>
       </c>
       <c r="S25" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="T25" t="n">
         <v>0.0</v>
@@ -5670,16 +5667,16 @@
         <v>0.0</v>
       </c>
       <c r="W25" t="n">
-        <v>4.0</v>
+        <v>15.0</v>
       </c>
       <c r="X25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Y25" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="Z25" t="n">
-        <v>0.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="26">
@@ -5687,13 +5684,13 @@
         <v>187</v>
       </c>
       <c r="B26" t="n">
-        <v>196.0</v>
+        <v>72.0</v>
       </c>
       <c r="C26" t="s">
         <v>228</v>
       </c>
       <c r="D26" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="E26" t="s">
         <v>268</v>
@@ -5708,10 +5705,10 @@
         <v>296</v>
       </c>
       <c r="I26" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="J26" t="n">
-        <v>5.4</v>
+        <v>1.2</v>
       </c>
       <c r="K26" t="n">
         <v>0.0</v>
@@ -5723,43 +5720,43 @@
         <v>0.0</v>
       </c>
       <c r="N26" t="n">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c r="O26" t="n">
-        <v>7.0</v>
+        <v>1.0</v>
       </c>
       <c r="P26" t="n">
         <v>1.0</v>
       </c>
       <c r="Q26" t="n">
-        <v>11.0</v>
+        <v>0.0</v>
       </c>
       <c r="R26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W26" t="n">
         <v>4.0</v>
       </c>
-      <c r="S26" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W26" t="n">
-        <v>19.0</v>
-      </c>
       <c r="X26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y26" t="n">
         <v>2.0</v>
       </c>
-      <c r="Y26" t="n">
-        <v>3.0</v>
-      </c>
       <c r="Z26" t="n">
-        <v>40.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="27">
@@ -5767,7 +5764,7 @@
         <v>188</v>
       </c>
       <c r="B27" t="n">
-        <v>817.0</v>
+        <v>197.0</v>
       </c>
       <c r="C27" t="s">
         <v>229</v>
@@ -5788,10 +5785,10 @@
         <v>297</v>
       </c>
       <c r="I27" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="J27" t="n">
-        <v>8.5</v>
+        <v>5.5</v>
       </c>
       <c r="K27" t="n">
         <v>0.0</v>
@@ -5803,25 +5800,25 @@
         <v>0.0</v>
       </c>
       <c r="N27" t="n">
-        <v>8.0</v>
+        <v>6.0</v>
       </c>
       <c r="O27" t="n">
-        <v>25.0</v>
+        <v>7.0</v>
       </c>
       <c r="P27" t="n">
         <v>1.0</v>
       </c>
       <c r="Q27" t="n">
-        <v>44.0</v>
+        <v>11.0</v>
       </c>
       <c r="R27" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="S27" t="n">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c r="T27" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="U27" t="n">
         <v>0.0</v>
@@ -5830,16 +5827,16 @@
         <v>0.0</v>
       </c>
       <c r="W27" t="n">
-        <v>28.0</v>
+        <v>20.0</v>
       </c>
       <c r="X27" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="Y27" t="n">
         <v>3.0</v>
       </c>
       <c r="Z27" t="n">
-        <v>25.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="28">
@@ -5847,13 +5844,13 @@
         <v>189</v>
       </c>
       <c r="B28" t="n">
-        <v>972.0</v>
+        <v>822.0</v>
       </c>
       <c r="C28" t="s">
         <v>230</v>
       </c>
       <c r="D28" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="E28" t="s">
         <v>268</v>
@@ -5868,10 +5865,10 @@
         <v>298</v>
       </c>
       <c r="I28" t="s">
-        <v>322</v>
+        <v>186</v>
       </c>
       <c r="J28" t="n">
-        <v>7.5</v>
+        <v>9.4</v>
       </c>
       <c r="K28" t="n">
         <v>0.0</v>
@@ -5886,40 +5883,40 @@
         <v>8.0</v>
       </c>
       <c r="O28" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W28" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="X28" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Y28" t="n">
         <v>3.0</v>
       </c>
-      <c r="P28" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="R28" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="S28" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="T28" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U28" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V28" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W28" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="X28" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>16.0</v>
-      </c>
       <c r="Z28" t="n">
-        <v>33.3</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="29">
@@ -5927,7 +5924,7 @@
         <v>190</v>
       </c>
       <c r="B29" t="n">
-        <v>1121.0</v>
+        <v>977.0</v>
       </c>
       <c r="C29" t="s">
         <v>231</v>
@@ -5936,7 +5933,7 @@
         <v>258</v>
       </c>
       <c r="E29" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="F29" t="s">
         <v>94</v>
@@ -5948,10 +5945,10 @@
         <v>299</v>
       </c>
       <c r="I29" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="J29" t="n">
-        <v>2.7</v>
+        <v>8.5</v>
       </c>
       <c r="K29" t="n">
         <v>0.0</v>
@@ -5963,23 +5960,23 @@
         <v>0.0</v>
       </c>
       <c r="N29" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="S29" t="n">
         <v>2.0</v>
       </c>
-      <c r="O29" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>1.0</v>
-      </c>
       <c r="T29" t="n">
         <v>0.0</v>
       </c>
@@ -5990,16 +5987,16 @@
         <v>0.0</v>
       </c>
       <c r="W29" t="n">
-        <v>11.0</v>
+        <v>16.0</v>
       </c>
       <c r="X29" t="n">
-        <v>4.0</v>
+        <v>10.0</v>
       </c>
       <c r="Y29" t="n">
-        <v>3.0</v>
+        <v>18.0</v>
       </c>
       <c r="Z29" t="n">
-        <v>57.1</v>
+        <v>35.7</v>
       </c>
     </row>
     <row r="30">
@@ -6007,13 +6004,13 @@
         <v>191</v>
       </c>
       <c r="B30" t="n">
-        <v>1199.0</v>
+        <v>1127.0</v>
       </c>
       <c r="C30" t="s">
         <v>232</v>
       </c>
       <c r="D30" t="s">
-        <v>245</v>
+        <v>258</v>
       </c>
       <c r="E30" t="s">
         <v>264</v>
@@ -6028,10 +6025,10 @@
         <v>300</v>
       </c>
       <c r="I30" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="J30" t="n">
-        <v>6.9</v>
+        <v>2.7</v>
       </c>
       <c r="K30" t="n">
         <v>0.0</v>
@@ -6043,43 +6040,43 @@
         <v>0.0</v>
       </c>
       <c r="N30" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R30" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="S30" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W30" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="X30" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="Y30" t="n">
         <v>3.0</v>
       </c>
-      <c r="O30" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="P30" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="R30" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="S30" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="T30" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U30" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V30" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W30" t="n">
-        <v>46.0</v>
-      </c>
-      <c r="X30" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="Y30" t="n">
-        <v>11.0</v>
-      </c>
       <c r="Z30" t="n">
-        <v>47.6</v>
+        <v>57.1</v>
       </c>
     </row>
     <row r="31">
@@ -6087,16 +6084,16 @@
         <v>192</v>
       </c>
       <c r="B31" t="n">
-        <v>1595.0</v>
+        <v>1206.0</v>
       </c>
       <c r="C31" t="s">
         <v>233</v>
       </c>
       <c r="D31" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
       <c r="E31" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="F31" t="s">
         <v>94</v>
@@ -6108,10 +6105,10 @@
         <v>301</v>
       </c>
       <c r="I31" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="J31" t="n">
-        <v>0.1</v>
+        <v>7.9</v>
       </c>
       <c r="K31" t="n">
         <v>0.0</v>
@@ -6123,22 +6120,22 @@
         <v>0.0</v>
       </c>
       <c r="N31" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="O31" t="n">
-        <v>0.0</v>
+        <v>13.0</v>
       </c>
       <c r="P31" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.0</v>
+        <v>12.0</v>
       </c>
       <c r="R31" t="n">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="S31" t="n">
-        <v>0.0</v>
+        <v>9.0</v>
       </c>
       <c r="T31" t="n">
         <v>0.0</v>
@@ -6150,16 +6147,16 @@
         <v>0.0</v>
       </c>
       <c r="W31" t="n">
-        <v>0.0</v>
+        <v>51.0</v>
       </c>
       <c r="X31" t="n">
-        <v>1.0</v>
+        <v>11.0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0.0</v>
+        <v>11.0</v>
       </c>
       <c r="Z31" t="n">
-        <v>100.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="32">
@@ -6167,16 +6164,16 @@
         <v>193</v>
       </c>
       <c r="B32" t="n">
-        <v>2104.0</v>
+        <v>1606.0</v>
       </c>
       <c r="C32" t="s">
         <v>234</v>
       </c>
       <c r="D32" t="s">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="E32" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="F32" t="s">
         <v>94</v>
@@ -6188,10 +6185,10 @@
         <v>302</v>
       </c>
       <c r="I32" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="J32" t="n">
-        <v>3.1</v>
+        <v>0.1</v>
       </c>
       <c r="K32" t="n">
         <v>0.0</v>
@@ -6203,22 +6200,22 @@
         <v>0.0</v>
       </c>
       <c r="N32" t="n">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
       <c r="O32" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="P32" t="n">
         <v>1.0</v>
       </c>
       <c r="Q32" t="n">
-        <v>21.0</v>
+        <v>0.0</v>
       </c>
       <c r="R32" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="S32" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="T32" t="n">
         <v>0.0</v>
@@ -6230,16 +6227,16 @@
         <v>0.0</v>
       </c>
       <c r="W32" t="n">
-        <v>15.0</v>
+        <v>0.0</v>
       </c>
       <c r="X32" t="n">
-        <v>7.0</v>
+        <v>1.0</v>
       </c>
       <c r="Y32" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z32" t="n">
-        <v>58.3</v>
+        <v>100.0</v>
       </c>
     </row>
     <row r="33">
@@ -6247,19 +6244,19 @@
         <v>194</v>
       </c>
       <c r="B33" t="n">
-        <v>116.0</v>
+        <v>2119.0</v>
       </c>
       <c r="C33" t="s">
         <v>235</v>
       </c>
       <c r="D33" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="E33" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="F33" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G33" t="s">
         <v>271</v>
@@ -6268,10 +6265,10 @@
         <v>303</v>
       </c>
       <c r="I33" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="J33" t="n">
-        <v>7.5</v>
+        <v>3.1</v>
       </c>
       <c r="K33" t="n">
         <v>0.0</v>
@@ -6283,22 +6280,22 @@
         <v>0.0</v>
       </c>
       <c r="N33" t="n">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="O33" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="P33" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.0</v>
+        <v>21.0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="S33" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="T33" t="n">
         <v>0.0</v>
@@ -6307,19 +6304,19 @@
         <v>0.0</v>
       </c>
       <c r="V33" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="W33" t="n">
-        <v>10.0</v>
+        <v>15.0</v>
       </c>
       <c r="X33" t="n">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Z33" t="e">
-        <v>#N/A</v>
+        <v>5.0</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>58.3</v>
       </c>
     </row>
     <row r="34">
@@ -6327,16 +6324,16 @@
         <v>195</v>
       </c>
       <c r="B34" t="n">
-        <v>296.0</v>
+        <v>116.0</v>
       </c>
       <c r="C34" t="s">
         <v>236</v>
       </c>
       <c r="D34" t="s">
-        <v>245</v>
+        <v>260</v>
       </c>
       <c r="E34" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F34" t="s">
         <v>96</v>
@@ -6348,10 +6345,10 @@
         <v>304</v>
       </c>
       <c r="I34" t="s">
-        <v>314</v>
+        <v>327</v>
       </c>
       <c r="J34" t="n">
-        <v>9.7</v>
+        <v>7.5</v>
       </c>
       <c r="K34" t="n">
         <v>0.0</v>
@@ -6363,22 +6360,22 @@
         <v>0.0</v>
       </c>
       <c r="N34" t="n">
-        <v>12.0</v>
+        <v>0.0</v>
       </c>
       <c r="O34" t="n">
-        <v>7.0</v>
+        <v>0.0</v>
       </c>
       <c r="P34" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q34" t="n">
-        <v>49.0</v>
+        <v>0.0</v>
       </c>
       <c r="R34" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="S34" t="n">
-        <v>8.0</v>
+        <v>1.0</v>
       </c>
       <c r="T34" t="n">
         <v>0.0</v>
@@ -6387,19 +6384,19 @@
         <v>0.0</v>
       </c>
       <c r="V34" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="W34" t="n">
-        <v>47.0</v>
+        <v>10.0</v>
       </c>
       <c r="X34" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y34" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="Z34" t="n">
-        <v>13.3</v>
+        <v>0.0</v>
+      </c>
+      <c r="Z34" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="35">
@@ -6407,16 +6404,16 @@
         <v>196</v>
       </c>
       <c r="B35" t="n">
-        <v>483.0</v>
+        <v>297.0</v>
       </c>
       <c r="C35" t="s">
         <v>237</v>
       </c>
       <c r="D35" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="E35" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F35" t="s">
         <v>96</v>
@@ -6428,10 +6425,10 @@
         <v>305</v>
       </c>
       <c r="I35" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="J35" t="n">
-        <v>2.2</v>
+        <v>10.7</v>
       </c>
       <c r="K35" t="n">
         <v>0.0</v>
@@ -6443,22 +6440,22 @@
         <v>0.0</v>
       </c>
       <c r="N35" t="n">
-        <v>6.0</v>
+        <v>12.0</v>
       </c>
       <c r="O35" t="n">
-        <v>3.0</v>
+        <v>9.0</v>
       </c>
       <c r="P35" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="Q35" t="n">
+        <v>51.0</v>
+      </c>
+      <c r="R35" t="n">
         <v>5.0</v>
       </c>
-      <c r="R35" t="n">
-        <v>2.0</v>
-      </c>
       <c r="S35" t="n">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="T35" t="n">
         <v>0.0</v>
@@ -6470,16 +6467,16 @@
         <v>0.0</v>
       </c>
       <c r="W35" t="n">
-        <v>5.0</v>
+        <v>51.0</v>
       </c>
       <c r="X35" t="n">
         <v>2.0</v>
       </c>
       <c r="Y35" t="n">
-        <v>3.0</v>
+        <v>16.0</v>
       </c>
       <c r="Z35" t="n">
-        <v>40.0</v>
+        <v>11.1</v>
       </c>
     </row>
     <row r="36">
@@ -6487,7 +6484,7 @@
         <v>197</v>
       </c>
       <c r="B36" t="n">
-        <v>687.0</v>
+        <v>691.0</v>
       </c>
       <c r="C36" t="s">
         <v>238</v>
@@ -6508,10 +6505,10 @@
         <v>306</v>
       </c>
       <c r="I36" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="J36" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="K36" t="n">
         <v>0.0</v>
@@ -6567,7 +6564,7 @@
         <v>198</v>
       </c>
       <c r="B37" t="n">
-        <v>745.0</v>
+        <v>749.0</v>
       </c>
       <c r="C37" t="s">
         <v>239</v>
@@ -6588,7 +6585,7 @@
         <v>307</v>
       </c>
       <c r="I37" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="J37" t="n">
         <v>0.7</v>
@@ -6647,7 +6644,7 @@
         <v>199</v>
       </c>
       <c r="B38" t="n">
-        <v>860.0</v>
+        <v>865.0</v>
       </c>
       <c r="C38" t="s">
         <v>240</v>
@@ -6668,7 +6665,7 @@
         <v>308</v>
       </c>
       <c r="I38" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="J38" t="n">
         <v>0.1</v>
@@ -6686,13 +6683,13 @@
         <v>0.0</v>
       </c>
       <c r="O38" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="P38" t="n">
         <v>0.0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="R38" t="n">
         <v>0.0</v>
@@ -6710,7 +6707,7 @@
         <v>0.0</v>
       </c>
       <c r="W38" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="X38" t="n">
         <v>0.0</v>
@@ -6727,7 +6724,7 @@
         <v>200</v>
       </c>
       <c r="B39" t="n">
-        <v>967.0</v>
+        <v>972.0</v>
       </c>
       <c r="C39" t="s">
         <v>241</v>
@@ -6751,7 +6748,7 @@
         <v>313</v>
       </c>
       <c r="J39" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="K39" t="n">
         <v>0.0</v>
@@ -6793,13 +6790,13 @@
         <v>1.0</v>
       </c>
       <c r="X39" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="Y39" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="Z39" t="n">
-        <v>75.0</v>
+        <v>71.4</v>
       </c>
     </row>
     <row r="40">
@@ -6807,7 +6804,7 @@
         <v>201</v>
       </c>
       <c r="B40" t="n">
-        <v>1131.0</v>
+        <v>1137.0</v>
       </c>
       <c r="C40" t="s">
         <v>242</v>
@@ -6887,7 +6884,7 @@
         <v>202</v>
       </c>
       <c r="B41" t="n">
-        <v>2075.0</v>
+        <v>2090.0</v>
       </c>
       <c r="C41" t="s">
         <v>243</v>
@@ -6911,7 +6908,7 @@
         <v>322</v>
       </c>
       <c r="J41" t="n">
-        <v>4.6</v>
+        <v>5.6</v>
       </c>
       <c r="K41" t="n">
         <v>0.0</v>
@@ -6923,10 +6920,10 @@
         <v>0.0</v>
       </c>
       <c r="N41" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="O41" t="n">
         <v>3.0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>2.0</v>
       </c>
       <c r="P41" t="n">
         <v>0.0</v>
@@ -6938,7 +6935,7 @@
         <v>6.0</v>
       </c>
       <c r="S41" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="T41" t="n">
         <v>0.0</v>
@@ -6950,16 +6947,16 @@
         <v>0.0</v>
       </c>
       <c r="W41" t="n">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="X41" t="n">
-        <v>7.0</v>
+        <v>9.0</v>
       </c>
       <c r="Y41" t="n">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
       <c r="Z41" t="n">
-        <v>46.7</v>
+        <v>47.4</v>
       </c>
     </row>
     <row r="42">
@@ -6967,7 +6964,7 @@
         <v>203</v>
       </c>
       <c r="B42" t="n">
-        <v>2192.0</v>
+        <v>2207.0</v>
       </c>
       <c r="C42" t="s">
         <v>244</v>
@@ -6991,7 +6988,7 @@
         <v>316</v>
       </c>
       <c r="J42" t="n">
-        <v>8.3</v>
+        <v>9.1</v>
       </c>
       <c r="K42" t="n">
         <v>0.0</v>
@@ -7012,10 +7009,10 @@
         <v>1.0</v>
       </c>
       <c r="Q42" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="R42" t="n">
         <v>17.0</v>
-      </c>
-      <c r="R42" t="n">
-        <v>16.0</v>
       </c>
       <c r="S42" t="n">
         <v>11.0</v>
@@ -7030,7 +7027,7 @@
         <v>0.0</v>
       </c>
       <c r="W42" t="n">
-        <v>41.0</v>
+        <v>44.0</v>
       </c>
       <c r="X42" t="n">
         <v>4.0</v>
@@ -7082,90 +7079,90 @@
         <v>145</v>
       </c>
       <c r="J1" t="s">
+        <v>330</v>
+      </c>
+      <c r="K1" t="s">
         <v>331</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>332</v>
-      </c>
-      <c r="L1" t="s">
-        <v>333</v>
       </c>
       <c r="M1" t="s">
         <v>146</v>
       </c>
       <c r="N1" t="s">
+        <v>333</v>
+      </c>
+      <c r="O1" t="s">
         <v>334</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>335</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>336</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>337</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>338</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>339</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>340</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>341</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>342</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>343</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>344</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>345</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>346</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>347</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>348</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>349</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>350</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>351</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>352</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>353</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B2" t="n">
-        <v>196.0</v>
+        <v>197.0</v>
       </c>
       <c r="C2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D2" t="s">
         <v>245</v>
@@ -7180,35 +7177,35 @@
         <v>271</v>
       </c>
       <c r="H2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="I2" t="s">
         <v>316</v>
       </c>
       <c r="J2" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="K2" t="n">
         <v>5.0</v>
       </c>
       <c r="L2" t="n">
-        <v>484.0</v>
+        <v>495.0</v>
       </c>
       <c r="M2" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="N2" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="O2" t="n">
         <v>1.0</v>
       </c>
       <c r="P2" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="Q2" t="n">
         <v>4.0</v>
       </c>
-      <c r="Q2" t="n">
-        <v>3.0</v>
-      </c>
       <c r="R2" t="n">
         <v>0.0</v>
       </c>
@@ -7222,54 +7219,54 @@
         <v>0.0</v>
       </c>
       <c r="V2" t="n">
-        <v>2.0</v>
+        <v>2.3</v>
       </c>
       <c r="W2" t="n">
-        <v>2.0</v>
+        <v>2.3</v>
       </c>
       <c r="X2" t="n">
         <v>2.0</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.0</v>
+        <v>4.3</v>
       </c>
       <c r="Z2" t="n">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="AA2" t="n">
         <v>26.0</v>
       </c>
       <c r="AB2" t="n">
-        <v>50.0</v>
+        <v>52.0</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.56</v>
+        <v>0.73</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.74</v>
+        <v>0.91</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.56</v>
+        <v>0.73</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.74</v>
+        <v>0.91</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.38</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B3" t="n">
-        <v>972.0</v>
+        <v>977.0</v>
       </c>
       <c r="C3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D3" t="s">
         <v>258</v>
@@ -7284,35 +7281,35 @@
         <v>271</v>
       </c>
       <c r="H3" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="I3" t="s">
         <v>322</v>
       </c>
       <c r="J3" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="K3" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="L3" t="n">
-        <v>675.0</v>
+        <v>764.0</v>
       </c>
       <c r="M3" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="N3" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="P3" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="Q3" t="n">
         <v>4.0</v>
       </c>
-      <c r="Q3" t="n">
-        <v>3.0</v>
-      </c>
       <c r="R3" t="n">
         <v>0.0</v>
       </c>
@@ -7326,40 +7323,40 @@
         <v>0.0</v>
       </c>
       <c r="V3" t="n">
-        <v>3.8</v>
+        <v>4.3</v>
       </c>
       <c r="W3" t="n">
-        <v>3.8</v>
+        <v>4.3</v>
       </c>
       <c r="X3" t="n">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.7</v>
+        <v>5.6</v>
       </c>
       <c r="Z3" t="n">
-        <v>16.0</v>
+        <v>19.0</v>
       </c>
       <c r="AA3" t="n">
-        <v>10.0</v>
+        <v>14.0</v>
       </c>
       <c r="AB3" t="n">
-        <v>42.0</v>
+        <v>49.0</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.4</v>
+        <v>0.47</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.13</v>
+        <v>0.24</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.53</v>
+        <v>0.71</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.4</v>
+        <v>0.47</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.53</v>
+        <v>0.71</v>
       </c>
       <c r="AH3" t="n">
         <v>0.51</v>
@@ -7367,19 +7364,19 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B4" t="n">
-        <v>296.0</v>
+        <v>297.0</v>
       </c>
       <c r="C4" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D4" t="s">
         <v>245</v>
       </c>
       <c r="E4" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="F4" t="s">
         <v>96</v>
@@ -7388,22 +7385,22 @@
         <v>271</v>
       </c>
       <c r="H4" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="I4" t="s">
         <v>314</v>
       </c>
       <c r="J4" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="K4" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="L4" t="n">
-        <v>876.0</v>
+        <v>966.0</v>
       </c>
       <c r="M4" t="n">
-        <v>9.7</v>
+        <v>10.7</v>
       </c>
       <c r="N4" t="n">
         <v>3.0</v>
@@ -7430,54 +7427,54 @@
         <v>0.0</v>
       </c>
       <c r="V4" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W4" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="X4" t="n">
         <v>2.9</v>
       </c>
       <c r="Y4" t="n">
-        <v>4.0</v>
+        <v>4.2</v>
       </c>
       <c r="Z4" t="n">
-        <v>38.0</v>
+        <v>42.0</v>
       </c>
       <c r="AA4" t="n">
-        <v>38.0</v>
+        <v>43.0</v>
       </c>
       <c r="AB4" t="n">
-        <v>55.0</v>
+        <v>62.0</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.31</v>
+        <v>0.28</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.21</v>
+        <v>0.19</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.51</v>
+        <v>0.47</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.21</v>
+        <v>0.19</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.41</v>
+        <v>0.37</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B5" t="n">
-        <v>817.0</v>
+        <v>822.0</v>
       </c>
       <c r="C5" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D5" t="s">
         <v>245</v>
@@ -7492,22 +7489,22 @@
         <v>271</v>
       </c>
       <c r="H5" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="I5" t="s">
-        <v>325</v>
+        <v>186</v>
       </c>
       <c r="J5" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="K5" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="L5" t="n">
-        <v>766.0</v>
+        <v>845.0</v>
       </c>
       <c r="M5" t="n">
-        <v>8.5</v>
+        <v>9.4</v>
       </c>
       <c r="N5" t="n">
         <v>2.0</v>
@@ -7534,84 +7531,84 @@
         <v>0.0</v>
       </c>
       <c r="V5" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="W5" t="n">
-        <v>1.7</v>
+        <v>2.0</v>
       </c>
       <c r="X5" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="Y5" t="n">
-        <v>3.5</v>
+        <v>4.1</v>
       </c>
       <c r="Z5" t="n">
-        <v>32.0</v>
+        <v>34.0</v>
       </c>
       <c r="AA5" t="n">
-        <v>12.0</v>
+        <v>19.0</v>
       </c>
       <c r="AB5" t="n">
-        <v>69.0</v>
+        <v>79.0</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.35</v>
+        <v>0.32</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="AH5" t="n">
-        <v>0.39</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>201</v>
+        <v>164</v>
       </c>
       <c r="B6" t="n">
-        <v>1131.0</v>
+        <v>1010.0</v>
       </c>
       <c r="C6" t="s">
-        <v>242</v>
+        <v>205</v>
       </c>
       <c r="D6" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
       <c r="E6" t="s">
         <v>265</v>
       </c>
       <c r="F6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G6" t="s">
         <v>271</v>
       </c>
       <c r="H6" t="s">
-        <v>310</v>
+        <v>273</v>
       </c>
       <c r="I6" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="J6" t="n">
-        <v>8.0</v>
+        <v>11.0</v>
       </c>
       <c r="K6" t="n">
-        <v>8.0</v>
+        <v>11.0</v>
       </c>
       <c r="L6" t="n">
-        <v>663.0</v>
+        <v>926.0</v>
       </c>
       <c r="M6" t="n">
-        <v>7.4</v>
+        <v>10.3</v>
       </c>
       <c r="N6" t="n">
         <v>2.0</v>
@@ -7632,66 +7629,66 @@
         <v>0.0</v>
       </c>
       <c r="T6" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="U6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="V6" t="n">
-        <v>2.8</v>
+        <v>1.9</v>
       </c>
       <c r="W6" t="n">
-        <v>2.8</v>
+        <v>1.9</v>
       </c>
       <c r="X6" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="Y6" t="n">
-        <v>3.6</v>
+        <v>2.6</v>
       </c>
       <c r="Z6" t="n">
-        <v>37.0</v>
+        <v>18.0</v>
       </c>
       <c r="AA6" t="n">
-        <v>20.0</v>
+        <v>46.0</v>
       </c>
       <c r="AB6" t="n">
-        <v>66.0</v>
+        <v>49.0</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.27</v>
+        <v>0.19</v>
       </c>
       <c r="AD6" t="n">
         <v>0.0</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.27</v>
+        <v>0.19</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.27</v>
+        <v>0.19</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.27</v>
+        <v>0.19</v>
       </c>
       <c r="AH6" t="n">
-        <v>0.38</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>167</v>
+        <v>201</v>
       </c>
       <c r="B7" t="n">
-        <v>1622.0</v>
+        <v>1137.0</v>
       </c>
       <c r="C7" t="s">
-        <v>208</v>
+        <v>242</v>
       </c>
       <c r="D7" t="s">
-        <v>246</v>
+        <v>263</v>
       </c>
       <c r="E7" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F7" t="s">
         <v>96</v>
@@ -7700,22 +7697,22 @@
         <v>271</v>
       </c>
       <c r="H7" t="s">
-        <v>276</v>
+        <v>310</v>
       </c>
       <c r="I7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="J7" t="n">
-        <v>10.0</v>
+        <v>8.0</v>
       </c>
       <c r="K7" t="n">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
       <c r="L7" t="n">
-        <v>721.0</v>
+        <v>663.0</v>
       </c>
       <c r="M7" t="n">
-        <v>8.0</v>
+        <v>7.4</v>
       </c>
       <c r="N7" t="n">
         <v>2.0</v>
@@ -7727,72 +7724,72 @@
         <v>2.0</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="R7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="S7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="T7" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V7" t="n">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="W7" t="n">
-        <v>1.3</v>
+        <v>2.8</v>
       </c>
       <c r="X7" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="Y7" t="n">
-        <v>2.0</v>
+        <v>3.6</v>
       </c>
       <c r="Z7" t="n">
-        <v>6.0</v>
+        <v>37.0</v>
       </c>
       <c r="AA7" t="n">
-        <v>45.0</v>
+        <v>20.0</v>
       </c>
       <c r="AB7" t="n">
-        <v>25.0</v>
+        <v>66.0</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.25</v>
+        <v>0.27</v>
       </c>
       <c r="AD7" t="n">
         <v>0.0</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.25</v>
+        <v>0.27</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.12</v>
+        <v>0.27</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.12</v>
+        <v>0.27</v>
       </c>
       <c r="AH7" t="n">
-        <v>0.27</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="B8" t="n">
-        <v>1976.0</v>
+        <v>1633.0</v>
       </c>
       <c r="C8" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="D8" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="E8" t="s">
         <v>267</v>
@@ -7804,22 +7801,22 @@
         <v>271</v>
       </c>
       <c r="H8" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="I8" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="J8" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>811.0</v>
+      </c>
+      <c r="M8" t="n">
         <v>9.0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>564.0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>6.3</v>
       </c>
       <c r="N8" t="n">
         <v>2.0</v>
@@ -7831,111 +7828,111 @@
         <v>2.0</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="R8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="S8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T8" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="U8" t="n">
         <v>0.0</v>
       </c>
       <c r="V8" t="n">
-        <v>2.0</v>
+        <v>2.1</v>
       </c>
       <c r="W8" t="n">
-        <v>2.0</v>
+        <v>1.3</v>
       </c>
       <c r="X8" t="n">
-        <v>0.4</v>
+        <v>1.2</v>
       </c>
       <c r="Y8" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="Z8" t="n">
-        <v>2.0</v>
+        <v>8.0</v>
       </c>
       <c r="AA8" t="n">
-        <v>23.0</v>
+        <v>54.0</v>
       </c>
       <c r="AB8" t="n">
-        <v>19.0</v>
+        <v>27.0</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.32</v>
+        <v>0.22</v>
       </c>
       <c r="AD8" t="n">
         <v>0.0</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.32</v>
+        <v>0.22</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.32</v>
+        <v>0.11</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.32</v>
+        <v>0.11</v>
       </c>
       <c r="AH8" t="n">
-        <v>0.32</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="B9" t="n">
-        <v>1005.0</v>
+        <v>1990.0</v>
       </c>
       <c r="C9" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="D9" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="E9" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="F9" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G9" t="s">
         <v>271</v>
       </c>
       <c r="H9" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="I9" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="J9" t="n">
         <v>10.0</v>
       </c>
       <c r="K9" t="n">
-        <v>10.0</v>
+        <v>7.0</v>
       </c>
       <c r="L9" t="n">
-        <v>836.0</v>
+        <v>654.0</v>
       </c>
       <c r="M9" t="n">
-        <v>9.3</v>
+        <v>7.3</v>
       </c>
       <c r="N9" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="O9" t="n">
         <v>0.0</v>
       </c>
       <c r="P9" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="R9" t="n">
         <v>0.0</v>
@@ -7944,49 +7941,49 @@
         <v>0.0</v>
       </c>
       <c r="T9" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="U9" t="n">
         <v>0.0</v>
       </c>
       <c r="V9" t="n">
-        <v>1.8</v>
+        <v>2.0</v>
       </c>
       <c r="W9" t="n">
-        <v>1.8</v>
+        <v>2.0</v>
       </c>
       <c r="X9" t="n">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="Y9" t="n">
         <v>2.4</v>
       </c>
       <c r="Z9" t="n">
-        <v>12.0</v>
+        <v>2.0</v>
       </c>
       <c r="AA9" t="n">
-        <v>42.0</v>
+        <v>27.0</v>
       </c>
       <c r="AB9" t="n">
-        <v>35.0</v>
+        <v>19.0</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.11</v>
+        <v>0.28</v>
       </c>
       <c r="AD9" t="n">
         <v>0.0</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.11</v>
+        <v>0.28</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.11</v>
+        <v>0.28</v>
       </c>
       <c r="AG9" t="n">
-        <v>0.11</v>
+        <v>0.28</v>
       </c>
       <c r="AH9" t="n">
-        <v>0.19</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="10">
@@ -7994,7 +7991,7 @@
         <v>165</v>
       </c>
       <c r="B10" t="n">
-        <v>1890.0</v>
+        <v>1902.0</v>
       </c>
       <c r="C10" t="s">
         <v>206</v>
@@ -8018,16 +8015,16 @@
         <v>315</v>
       </c>
       <c r="J10" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="K10" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="L10" t="n">
-        <v>657.0</v>
+        <v>747.0</v>
       </c>
       <c r="M10" t="n">
-        <v>7.3</v>
+        <v>8.3</v>
       </c>
       <c r="N10" t="n">
         <v>1.0</v>
@@ -8066,31 +8063,31 @@
         <v>1.0</v>
       </c>
       <c r="Z10" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="AA10" t="n">
-        <v>32.0</v>
+        <v>36.0</v>
       </c>
       <c r="AB10" t="n">
-        <v>7.0</v>
+        <v>9.0</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
       <c r="AD10" t="n">
         <v>0.0</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
       <c r="AH10" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="11">
@@ -8122,16 +8119,16 @@
         <v>323</v>
       </c>
       <c r="J11" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="K11" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="L11" t="n">
-        <v>603.0</v>
+        <v>669.0</v>
       </c>
       <c r="M11" t="n">
-        <v>6.7</v>
+        <v>7.4</v>
       </c>
       <c r="N11" t="n">
         <v>1.0</v>
@@ -8170,31 +8167,31 @@
         <v>3.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>17.0</v>
+        <v>20.0</v>
       </c>
       <c r="AA11" t="n">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="AB11" t="n">
-        <v>40.0</v>
+        <v>44.0</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AH11" t="n">
-        <v>0.28</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="12">
@@ -8202,7 +8199,7 @@
         <v>200</v>
       </c>
       <c r="B12" t="n">
-        <v>967.0</v>
+        <v>972.0</v>
       </c>
       <c r="C12" t="s">
         <v>241</v>
@@ -8226,16 +8223,16 @@
         <v>313</v>
       </c>
       <c r="J12" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="K12" t="n">
         <v>0.0</v>
       </c>
       <c r="L12" t="n">
-        <v>51.0</v>
+        <v>75.0</v>
       </c>
       <c r="M12" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="N12" t="n">
         <v>1.0</v>
@@ -8262,60 +8259,60 @@
         <v>0.0</v>
       </c>
       <c r="V12" t="n">
-        <v>0.7</v>
+        <v>1.0</v>
       </c>
       <c r="W12" t="n">
-        <v>0.7</v>
+        <v>1.0</v>
       </c>
       <c r="X12" t="n">
         <v>0.5</v>
       </c>
       <c r="Y12" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AC12" t="n">
         <v>1.2</v>
       </c>
-      <c r="Z12" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>1.76</v>
-      </c>
       <c r="AD12" t="n">
-        <v>1.76</v>
+        <v>1.2</v>
       </c>
       <c r="AE12" t="n">
-        <v>3.53</v>
+        <v>2.4</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.76</v>
+        <v>1.2</v>
       </c>
       <c r="AG12" t="n">
-        <v>3.53</v>
+        <v>2.4</v>
       </c>
       <c r="AH12" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B13" t="n">
-        <v>2014.0</v>
+        <v>2028.0</v>
       </c>
       <c r="C13" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D13" t="s">
         <v>256</v>
       </c>
       <c r="E13" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="F13" t="s">
         <v>96</v>
@@ -8324,22 +8321,22 @@
         <v>271</v>
       </c>
       <c r="H13" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="I13" t="s">
-        <v>325</v>
+        <v>186</v>
       </c>
       <c r="J13" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="K13" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="L13" t="n">
-        <v>264.0</v>
+        <v>346.0</v>
       </c>
       <c r="M13" t="n">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="N13" t="n">
         <v>1.0</v>
@@ -8366,54 +8363,54 @@
         <v>0.0</v>
       </c>
       <c r="V13" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="X13" t="n">
         <v>0.6</v>
       </c>
-      <c r="W13" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="X13" t="n">
-        <v>0.5</v>
-      </c>
       <c r="Y13" t="n">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>9.0</v>
+        <v>11.0</v>
       </c>
       <c r="AA13" t="n">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="AB13" t="n">
-        <v>25.0</v>
+        <v>29.0</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.34</v>
+        <v>0.26</v>
       </c>
       <c r="AD13" t="n">
         <v>0.0</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.34</v>
+        <v>0.26</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.34</v>
+        <v>0.26</v>
       </c>
       <c r="AG13" t="n">
-        <v>0.34</v>
+        <v>0.26</v>
       </c>
       <c r="AH13" t="n">
-        <v>0.22</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B14" t="n">
         <v>72.0</v>
       </c>
       <c r="C14" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D14" t="s">
         <v>257</v>
@@ -8428,7 +8425,7 @@
         <v>271</v>
       </c>
       <c r="H14" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="I14" t="s">
         <v>319</v>
@@ -8514,7 +8511,7 @@
         <v>163</v>
       </c>
       <c r="B15" t="n">
-        <v>328.0</v>
+        <v>329.0</v>
       </c>
       <c r="C15" t="s">
         <v>204</v>
@@ -8538,16 +8535,16 @@
         <v>313</v>
       </c>
       <c r="J15" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="K15" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="L15" t="n">
-        <v>900.0</v>
+        <v>990.0</v>
       </c>
       <c r="M15" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="N15" t="n">
         <v>0.0</v>
@@ -8568,22 +8565,22 @@
         <v>0.0</v>
       </c>
       <c r="T15" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="U15" t="n">
         <v>0.0</v>
       </c>
       <c r="V15" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="W15" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="X15" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="Z15" t="n">
         <v>0.0</v>
@@ -8610,7 +8607,7 @@
         <v>0.0</v>
       </c>
       <c r="AH15" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="16">
@@ -8618,7 +8615,7 @@
         <v>175</v>
       </c>
       <c r="B16" t="n">
-        <v>862.0</v>
+        <v>867.0</v>
       </c>
       <c r="C16" t="s">
         <v>216</v>
@@ -8642,16 +8639,16 @@
         <v>316</v>
       </c>
       <c r="J16" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="K16" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="L16" t="n">
-        <v>889.0</v>
+        <v>979.0</v>
       </c>
       <c r="M16" t="n">
-        <v>9.9</v>
+        <v>10.9</v>
       </c>
       <c r="N16" t="n">
         <v>0.0</v>
@@ -8678,22 +8675,22 @@
         <v>0.0</v>
       </c>
       <c r="V16" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="W16" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="X16" t="n">
         <v>0.8</v>
       </c>
       <c r="Y16" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="Z16" t="n">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="AA16" t="n">
-        <v>63.0</v>
+        <v>71.0</v>
       </c>
       <c r="AB16" t="n">
         <v>12.0</v>
@@ -8702,19 +8699,19 @@
         <v>0.0</v>
       </c>
       <c r="AD16" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AE16" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AF16" t="n">
         <v>0.0</v>
       </c>
       <c r="AG16" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AH16" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="17">
@@ -8722,7 +8719,7 @@
         <v>168</v>
       </c>
       <c r="B17" t="n">
-        <v>890.0</v>
+        <v>895.0</v>
       </c>
       <c r="C17" t="s">
         <v>209</v>
@@ -8746,16 +8743,16 @@
         <v>317</v>
       </c>
       <c r="J17" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="K17" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="L17" t="n">
-        <v>696.0</v>
+        <v>786.0</v>
       </c>
       <c r="M17" t="n">
-        <v>7.7</v>
+        <v>8.7</v>
       </c>
       <c r="N17" t="n">
         <v>0.0</v>
@@ -8794,28 +8791,28 @@
         <v>1.8</v>
       </c>
       <c r="Z17" t="n">
-        <v>13.0</v>
+        <v>15.0</v>
       </c>
       <c r="AA17" t="n">
-        <v>40.0</v>
+        <v>52.0</v>
       </c>
       <c r="AB17" t="n">
-        <v>18.0</v>
+        <v>21.0</v>
       </c>
       <c r="AC17" t="n">
         <v>0.0</v>
       </c>
       <c r="AD17" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="AE17" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="AF17" t="n">
         <v>0.0</v>
       </c>
       <c r="AG17" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="AH17" t="n">
         <v>0.0</v>
@@ -8826,7 +8823,7 @@
         <v>177</v>
       </c>
       <c r="B18" t="n">
-        <v>1069.0</v>
+        <v>1074.0</v>
       </c>
       <c r="C18" t="s">
         <v>218</v>
@@ -8927,13 +8924,13 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B19" t="n">
-        <v>1121.0</v>
+        <v>1127.0</v>
       </c>
       <c r="C19" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D19" t="s">
         <v>258</v>
@@ -8948,7 +8945,7 @@
         <v>271</v>
       </c>
       <c r="H19" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="I19" t="s">
         <v>319</v>
@@ -9031,13 +9028,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B20" t="n">
-        <v>1199.0</v>
+        <v>1206.0</v>
       </c>
       <c r="C20" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D20" t="s">
         <v>245</v>
@@ -9052,22 +9049,22 @@
         <v>271</v>
       </c>
       <c r="H20" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="I20" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J20" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="K20" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="L20" t="n">
-        <v>620.0</v>
+        <v>710.0</v>
       </c>
       <c r="M20" t="n">
-        <v>6.9</v>
+        <v>7.9</v>
       </c>
       <c r="N20" t="n">
         <v>0.0</v>
@@ -9106,13 +9103,13 @@
         <v>0.2</v>
       </c>
       <c r="Z20" t="n">
-        <v>12.0</v>
+        <v>14.0</v>
       </c>
       <c r="AA20" t="n">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
       <c r="AB20" t="n">
-        <v>19.0</v>
+        <v>28.0</v>
       </c>
       <c r="AC20" t="n">
         <v>0.0</v>
@@ -9138,7 +9135,7 @@
         <v>176</v>
       </c>
       <c r="B21" t="n">
-        <v>1208.0</v>
+        <v>1215.0</v>
       </c>
       <c r="C21" t="s">
         <v>217</v>
@@ -9162,16 +9159,16 @@
         <v>316</v>
       </c>
       <c r="J21" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="K21" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="L21" t="n">
-        <v>424.0</v>
+        <v>514.0</v>
       </c>
       <c r="M21" t="n">
-        <v>4.7</v>
+        <v>5.7</v>
       </c>
       <c r="N21" t="n">
         <v>0.0</v>
@@ -9198,25 +9195,25 @@
         <v>0.0</v>
       </c>
       <c r="V21" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="W21" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="X21" t="n">
-        <v>0.0</v>
+        <v>0.1</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="Z21" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="AA21" t="n">
-        <v>19.0</v>
+        <v>28.0</v>
       </c>
       <c r="AB21" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="AC21" t="n">
         <v>0.0</v>
@@ -9234,7 +9231,7 @@
         <v>0.0</v>
       </c>
       <c r="AH21" t="n">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="22">
@@ -9242,7 +9239,7 @@
         <v>178</v>
       </c>
       <c r="B22" t="n">
-        <v>1468.0</v>
+        <v>1478.0</v>
       </c>
       <c r="C22" t="s">
         <v>219</v>
@@ -9343,13 +9340,13 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B23" t="n">
-        <v>1595.0</v>
+        <v>1606.0</v>
       </c>
       <c r="C23" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D23" t="s">
         <v>259</v>
@@ -9364,19 +9361,19 @@
         <v>271</v>
       </c>
       <c r="H23" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="I23" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="J23" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="K23" t="n">
         <v>0.0</v>
       </c>
       <c r="L23" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="M23" t="n">
         <v>0.1</v>
@@ -9450,7 +9447,7 @@
         <v>179</v>
       </c>
       <c r="B24" t="n">
-        <v>1700.0</v>
+        <v>1711.0</v>
       </c>
       <c r="C24" t="s">
         <v>220</v>
@@ -9474,16 +9471,16 @@
         <v>313</v>
       </c>
       <c r="J24" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="K24" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="L24" t="n">
-        <v>900.0</v>
+        <v>990.0</v>
       </c>
       <c r="M24" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="N24" t="n">
         <v>0.0</v>
@@ -9554,7 +9551,7 @@
         <v>169</v>
       </c>
       <c r="B25" t="n">
-        <v>2083.0</v>
+        <v>2098.0</v>
       </c>
       <c r="C25" t="s">
         <v>210</v>
@@ -9578,25 +9575,25 @@
         <v>318</v>
       </c>
       <c r="J25" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="K25" t="n">
         <v>4.0</v>
       </c>
       <c r="L25" t="n">
-        <v>388.0</v>
+        <v>410.0</v>
       </c>
       <c r="M25" t="n">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="N25" t="n">
         <v>0.0</v>
       </c>
       <c r="O25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q25" t="n">
         <v>0.0</v>
@@ -9620,48 +9617,48 @@
         <v>0.7</v>
       </c>
       <c r="X25" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.9</v>
+        <v>1.0</v>
       </c>
       <c r="Z25" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="AA25" t="n">
-        <v>13.0</v>
+        <v>15.0</v>
       </c>
       <c r="AB25" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="AC25" t="n">
         <v>0.0</v>
       </c>
       <c r="AD25" t="n">
-        <v>0.0</v>
+        <v>0.22</v>
       </c>
       <c r="AE25" t="n">
-        <v>0.0</v>
+        <v>0.22</v>
       </c>
       <c r="AF25" t="n">
         <v>0.0</v>
       </c>
       <c r="AG25" t="n">
-        <v>0.0</v>
+        <v>0.22</v>
       </c>
       <c r="AH25" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B26" t="n">
-        <v>2104.0</v>
+        <v>2119.0</v>
       </c>
       <c r="C26" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D26" t="s">
         <v>245</v>
@@ -9676,7 +9673,7 @@
         <v>271</v>
       </c>
       <c r="H26" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="I26" t="s">
         <v>323</v>
@@ -9762,7 +9759,7 @@
         <v>180</v>
       </c>
       <c r="B27" t="n">
-        <v>2216.0</v>
+        <v>2231.0</v>
       </c>
       <c r="C27" t="s">
         <v>221</v>
@@ -9786,16 +9783,16 @@
         <v>322</v>
       </c>
       <c r="J27" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="K27" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="L27" t="n">
-        <v>261.0</v>
+        <v>329.0</v>
       </c>
       <c r="M27" t="n">
-        <v>2.9</v>
+        <v>3.7</v>
       </c>
       <c r="N27" t="n">
         <v>0.0</v>
@@ -9822,40 +9819,40 @@
         <v>0.0</v>
       </c>
       <c r="V27" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="W27" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="X27" t="n">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="Y27" t="n">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="Z27" t="n">
-        <v>12.0</v>
+        <v>14.0</v>
       </c>
       <c r="AA27" t="n">
-        <v>14.0</v>
+        <v>18.0</v>
       </c>
       <c r="AB27" t="n">
-        <v>24.0</v>
+        <v>31.0</v>
       </c>
       <c r="AC27" t="n">
         <v>0.0</v>
       </c>
       <c r="AD27" t="n">
-        <v>0.34</v>
+        <v>0.27</v>
       </c>
       <c r="AE27" t="n">
-        <v>0.34</v>
+        <v>0.27</v>
       </c>
       <c r="AF27" t="n">
         <v>0.0</v>
       </c>
       <c r="AG27" t="n">
-        <v>0.34</v>
+        <v>0.27</v>
       </c>
       <c r="AH27" t="n">
         <v>0.08</v>
@@ -9967,13 +9964,13 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B29" t="n">
         <v>116.0</v>
       </c>
       <c r="C29" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D29" t="s">
         <v>260</v>
@@ -9988,10 +9985,10 @@
         <v>271</v>
       </c>
       <c r="H29" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="I29" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="J29" t="n">
         <v>8.0</v>
@@ -10071,13 +10068,13 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="B30" t="n">
-        <v>483.0</v>
+        <v>484.0</v>
       </c>
       <c r="C30" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="D30" t="s">
         <v>252</v>
@@ -10092,22 +10089,22 @@
         <v>271</v>
       </c>
       <c r="H30" t="s">
-        <v>305</v>
+        <v>291</v>
       </c>
       <c r="I30" t="s">
         <v>313</v>
       </c>
       <c r="J30" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="K30" t="n">
         <v>2.0</v>
       </c>
       <c r="L30" t="n">
-        <v>200.0</v>
+        <v>224.0</v>
       </c>
       <c r="M30" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="N30" t="n">
         <v>0.0</v>
@@ -10128,7 +10125,7 @@
         <v>0.0</v>
       </c>
       <c r="T30" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="U30" t="n">
         <v>0.0</v>
@@ -10146,13 +10143,13 @@
         <v>0.1</v>
       </c>
       <c r="Z30" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="AA30" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AB30" t="n">
         <v>6.0</v>
-      </c>
-      <c r="AB30" t="n">
-        <v>4.0</v>
       </c>
       <c r="AC30" t="n">
         <v>0.0</v>
@@ -10175,13 +10172,13 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B31" t="n">
-        <v>492.0</v>
+        <v>493.0</v>
       </c>
       <c r="C31" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D31" t="s">
         <v>245</v>
@@ -10196,7 +10193,7 @@
         <v>271</v>
       </c>
       <c r="H31" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="I31" t="s">
         <v>324</v>
@@ -10282,7 +10279,7 @@
         <v>197</v>
       </c>
       <c r="B32" t="n">
-        <v>687.0</v>
+        <v>691.0</v>
       </c>
       <c r="C32" t="s">
         <v>238</v>
@@ -10303,19 +10300,19 @@
         <v>306</v>
       </c>
       <c r="I32" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="J32" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="K32" t="n">
         <v>3.0</v>
       </c>
-      <c r="K32" t="n">
-        <v>2.0</v>
-      </c>
       <c r="L32" t="n">
-        <v>225.0</v>
+        <v>315.0</v>
       </c>
       <c r="M32" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="N32" t="n">
         <v>0.0</v>
@@ -10386,7 +10383,7 @@
         <v>198</v>
       </c>
       <c r="B33" t="n">
-        <v>745.0</v>
+        <v>749.0</v>
       </c>
       <c r="C33" t="s">
         <v>239</v>
@@ -10407,7 +10404,7 @@
         <v>307</v>
       </c>
       <c r="I33" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="J33" t="n">
         <v>3.0</v>
@@ -10490,7 +10487,7 @@
         <v>199</v>
       </c>
       <c r="B34" t="n">
-        <v>860.0</v>
+        <v>865.0</v>
       </c>
       <c r="C34" t="s">
         <v>240</v>
@@ -10511,16 +10508,16 @@
         <v>308</v>
       </c>
       <c r="I34" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="J34" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="K34" t="n">
         <v>0.0</v>
       </c>
       <c r="L34" t="n">
-        <v>5.0</v>
+        <v>13.0</v>
       </c>
       <c r="M34" t="n">
         <v>0.1</v>
@@ -10568,7 +10565,7 @@
         <v>0.0</v>
       </c>
       <c r="AB34" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AC34" t="n">
         <v>0.0</v>
@@ -10591,13 +10588,13 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B35" t="n">
-        <v>971.0</v>
+        <v>976.0</v>
       </c>
       <c r="C35" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D35" t="s">
         <v>254</v>
@@ -10612,7 +10609,7 @@
         <v>271</v>
       </c>
       <c r="H35" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="I35" t="s">
         <v>318</v>
@@ -10698,7 +10695,7 @@
         <v>170</v>
       </c>
       <c r="B36" t="n">
-        <v>1082.0</v>
+        <v>1087.0</v>
       </c>
       <c r="C36" t="s">
         <v>211</v>
@@ -10722,16 +10719,16 @@
         <v>316</v>
       </c>
       <c r="J36" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="K36" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="L36" t="n">
-        <v>900.0</v>
+        <v>990.0</v>
       </c>
       <c r="M36" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="N36" t="n">
         <v>0.0</v>
@@ -10770,10 +10767,10 @@
         <v>0.9</v>
       </c>
       <c r="Z36" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="AA36" t="n">
-        <v>43.0</v>
+        <v>46.0</v>
       </c>
       <c r="AB36" t="n">
         <v>2.0</v>
@@ -10782,30 +10779,30 @@
         <v>0.0</v>
       </c>
       <c r="AD36" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AE36" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AF36" t="n">
         <v>0.0</v>
       </c>
       <c r="AG36" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AH36" t="n">
-        <v>0.07</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B37" t="n">
-        <v>1341.0</v>
+        <v>1349.0</v>
       </c>
       <c r="C37" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D37" t="s">
         <v>255</v>
@@ -10820,7 +10817,7 @@
         <v>271</v>
       </c>
       <c r="H37" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="I37" t="s">
         <v>316</v>
@@ -10906,7 +10903,7 @@
         <v>171</v>
       </c>
       <c r="B38" t="n">
-        <v>1620.0</v>
+        <v>1631.0</v>
       </c>
       <c r="C38" t="s">
         <v>212</v>
@@ -10930,16 +10927,16 @@
         <v>319</v>
       </c>
       <c r="J38" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="K38" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="L38" t="n">
-        <v>761.0</v>
+        <v>851.0</v>
       </c>
       <c r="M38" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="N38" t="n">
         <v>0.0</v>
@@ -10966,25 +10963,25 @@
         <v>0.0</v>
       </c>
       <c r="V38" t="n">
-        <v>0.9</v>
+        <v>1.0</v>
       </c>
       <c r="W38" t="n">
-        <v>0.9</v>
+        <v>1.0</v>
       </c>
       <c r="X38" t="n">
         <v>0.8</v>
       </c>
       <c r="Y38" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="Z38" t="n">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="AA38" t="n">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="AB38" t="n">
-        <v>37.0</v>
+        <v>42.0</v>
       </c>
       <c r="AC38" t="n">
         <v>0.0</v>
@@ -11002,7 +10999,7 @@
         <v>0.0</v>
       </c>
       <c r="AH38" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="39">
@@ -11010,7 +11007,7 @@
         <v>172</v>
       </c>
       <c r="B39" t="n">
-        <v>1780.0</v>
+        <v>1791.0</v>
       </c>
       <c r="C39" t="s">
         <v>213</v>
@@ -11034,16 +11031,16 @@
         <v>319</v>
       </c>
       <c r="J39" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="K39" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="L39" t="n">
-        <v>733.0</v>
+        <v>799.0</v>
       </c>
       <c r="M39" t="n">
-        <v>8.1</v>
+        <v>8.9</v>
       </c>
       <c r="N39" t="n">
         <v>0.0</v>
@@ -11085,7 +11082,7 @@
         <v>2.0</v>
       </c>
       <c r="AA39" t="n">
-        <v>22.0</v>
+        <v>24.0</v>
       </c>
       <c r="AB39" t="n">
         <v>4.0</v>
@@ -11114,7 +11111,7 @@
         <v>173</v>
       </c>
       <c r="B40" t="n">
-        <v>1966.0</v>
+        <v>1980.0</v>
       </c>
       <c r="C40" t="s">
         <v>214</v>
@@ -11138,16 +11135,16 @@
         <v>316</v>
       </c>
       <c r="J40" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="K40" t="n">
         <v>1.0</v>
       </c>
       <c r="L40" t="n">
-        <v>244.0</v>
+        <v>268.0</v>
       </c>
       <c r="M40" t="n">
-        <v>2.7</v>
+        <v>3.0</v>
       </c>
       <c r="N40" t="n">
         <v>0.0</v>
@@ -11183,13 +11180,13 @@
         <v>0.1</v>
       </c>
       <c r="Y40" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="Z40" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="AA40" t="n">
-        <v>10.0</v>
+        <v>12.0</v>
       </c>
       <c r="AB40" t="n">
         <v>6.0</v>
@@ -11210,7 +11207,7 @@
         <v>0.0</v>
       </c>
       <c r="AH40" t="n">
-        <v>0.07</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="41">
@@ -11218,7 +11215,7 @@
         <v>202</v>
       </c>
       <c r="B41" t="n">
-        <v>2075.0</v>
+        <v>2090.0</v>
       </c>
       <c r="C41" t="s">
         <v>243</v>
@@ -11242,16 +11239,16 @@
         <v>322</v>
       </c>
       <c r="J41" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="K41" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="L41" t="n">
-        <v>413.0</v>
+        <v>503.0</v>
       </c>
       <c r="M41" t="n">
-        <v>4.6</v>
+        <v>5.6</v>
       </c>
       <c r="N41" t="n">
         <v>0.0</v>
@@ -11293,7 +11290,7 @@
         <v>2.0</v>
       </c>
       <c r="AA41" t="n">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="AB41" t="n">
         <v>1.0</v>
@@ -11322,7 +11319,7 @@
         <v>203</v>
       </c>
       <c r="B42" t="n">
-        <v>2192.0</v>
+        <v>2207.0</v>
       </c>
       <c r="C42" t="s">
         <v>244</v>
@@ -11346,16 +11343,16 @@
         <v>316</v>
       </c>
       <c r="J42" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="K42" t="n">
         <v>9.0</v>
       </c>
-      <c r="K42" t="n">
-        <v>8.0</v>
-      </c>
       <c r="L42" t="n">
-        <v>749.0</v>
+        <v>815.0</v>
       </c>
       <c r="M42" t="n">
-        <v>8.3</v>
+        <v>9.1</v>
       </c>
       <c r="N42" t="n">
         <v>0.0</v>
@@ -11400,7 +11397,7 @@
         <v>38.0</v>
       </c>
       <c r="AB42" t="n">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="AC42" t="n">
         <v>0.0</v>
